--- a/data_picipennis_a2.xlsx
+++ b/data_picipennis_a2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mendelu-my.sharepoint.com/personal/xstoces_mendelu_cz1/Documents/SSD_21.12.2024/Maďarsko/excel/H.picipennis/a2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Deeplearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_AD4D80C4656A4B7AC02E7484B35F43565BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DF5AF7D-EA2D-429D-B0DF-FC9B16CED995}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F317BC-85EB-4849-AD87-85C46863ABF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27735" yWindow="1875" windowWidth="21570" windowHeight="18105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26325" yWindow="0" windowWidth="24000" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,6 +250,9 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -265,10 +268,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,7 +536,7 @@
   <dimension ref="A1:V205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,12 +661,12 @@
         <v>5.6143437685900528E-2</v>
       </c>
       <c r="S2" s="4">
-        <f t="shared" ref="S2:S37" si="1">ABS(O2-N2)/$V$2</f>
+        <f>ABS(O2-N2)/$V$2</f>
         <v>6.107812905517291E-2</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4">
-        <f t="shared" ref="U2:U65" si="2">(O2+N2)/2</f>
+        <f t="shared" ref="U2:U65" si="1">(O2+N2)/2</f>
         <v>0.22965666458746187</v>
       </c>
       <c r="V2" s="4">
@@ -729,11 +728,11 @@
         <v>5.6143437685900528E-2</v>
       </c>
       <c r="S3">
+        <f t="shared" ref="S2:S37" si="2">ABS(O3-N3)/$V$2</f>
+        <v>6.107812905517291E-2</v>
+      </c>
+      <c r="U3">
         <f t="shared" si="1"/>
-        <v>6.107812905517291E-2</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="2"/>
         <v>0.22965666458746187</v>
       </c>
     </row>
@@ -791,11 +790,11 @@
         <v>0.24311530631834433</v>
       </c>
       <c r="S4">
+        <f t="shared" si="2"/>
+        <v>0.23288339401567379</v>
+      </c>
+      <c r="U4">
         <f t="shared" si="1"/>
-        <v>0.23288339401567379</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="2"/>
         <v>0.20221741215589623</v>
       </c>
     </row>
@@ -853,11 +852,11 @@
         <v>0.28107926454869492</v>
       </c>
       <c r="S5">
+        <f t="shared" si="2"/>
+        <v>0.27519620240962689</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="1"/>
-        <v>0.27519620240962689</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="2"/>
         <v>0.20668357119988517</v>
       </c>
     </row>
@@ -915,11 +914,11 @@
         <v>4.793417965129039E-2</v>
       </c>
       <c r="S6">
+        <f t="shared" si="2"/>
+        <v>4.1300298480232103E-2</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="1"/>
-        <v>4.1300298480232103E-2</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="2"/>
         <v>0.18188639699104103</v>
       </c>
     </row>
@@ -977,11 +976,11 @@
         <v>9.8020853459262453E-2</v>
       </c>
       <c r="S7">
+        <f t="shared" si="2"/>
+        <v>8.6679236438041526E-2</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="1"/>
-        <v>8.6679236438041526E-2</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="2"/>
         <v>0.18667618906250866</v>
       </c>
     </row>
@@ -1042,11 +1041,11 @@
         <v>4.1303149674660943E-2</v>
       </c>
       <c r="S8">
+        <f t="shared" si="2"/>
+        <v>3.6017649759457177E-2</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="1"/>
-        <v>3.6017649759457177E-2</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="2"/>
         <v>0.18408759689692483</v>
       </c>
     </row>
@@ -1107,11 +1106,11 @@
         <v>4.7111772881743397E-2</v>
       </c>
       <c r="S9">
+        <f t="shared" si="2"/>
+        <v>4.0966380731404552E-2</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="1"/>
-        <v>4.0966380731404552E-2</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="2"/>
         <v>0.18356525341688795</v>
       </c>
     </row>
@@ -1169,11 +1168,11 @@
         <v>0.13540423120628803</v>
       </c>
       <c r="S10">
+        <f t="shared" si="2"/>
+        <v>0.13244102900893273</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="1"/>
-        <v>0.13244102900893273</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="2"/>
         <v>0.20648220987847693</v>
       </c>
     </row>
@@ -1231,11 +1230,11 @@
         <v>0.13540423120628803</v>
       </c>
       <c r="S11">
+        <f t="shared" si="2"/>
+        <v>0.13244102900893273</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="1"/>
-        <v>0.13244102900893273</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="2"/>
         <v>0.20648220987847693</v>
       </c>
     </row>
@@ -1293,11 +1292,11 @@
         <v>0.12812799298030039</v>
       </c>
       <c r="S12">
+        <f t="shared" si="2"/>
+        <v>0.13290178939586864</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="1"/>
-        <v>0.13290178939586864</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="2"/>
         <v>0.2189672347840847</v>
       </c>
     </row>
@@ -1355,11 +1354,11 @@
         <v>0.12812799298030039</v>
       </c>
       <c r="S13">
+        <f t="shared" si="2"/>
+        <v>0.13290178939586864</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="1"/>
-        <v>0.13290178939586864</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="2"/>
         <v>0.2189672347840847</v>
       </c>
     </row>
@@ -1417,11 +1416,11 @@
         <v>0.10749076515075395</v>
       </c>
       <c r="S14">
+        <f t="shared" si="2"/>
+        <v>0.10300681829174362</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="1"/>
-        <v>0.10300681829174362</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="2"/>
         <v>0.20229593096740986</v>
       </c>
     </row>
@@ -1479,11 +1478,11 @@
         <v>0.10749076515075395</v>
       </c>
       <c r="S15">
+        <f t="shared" si="2"/>
+        <v>0.10300681829174362</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="1"/>
-        <v>0.10300681829174362</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="2"/>
         <v>0.20229593096740986</v>
       </c>
     </row>
@@ -1541,11 +1540,11 @@
         <v>5.6880050809944571E-3</v>
       </c>
       <c r="S16">
+        <f t="shared" si="2"/>
+        <v>5.3786222988908457E-3</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="1"/>
-        <v>5.3786222988908457E-3</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="2"/>
         <v>0.19961970125690692</v>
       </c>
     </row>
@@ -1603,11 +1602,11 @@
         <v>5.6880050809944571E-3</v>
       </c>
       <c r="S17">
+        <f t="shared" si="2"/>
+        <v>5.3786222988908457E-3</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="1"/>
-        <v>5.3786222988908457E-3</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="2"/>
         <v>0.19961970125690692</v>
       </c>
     </row>
@@ -1665,11 +1664,11 @@
         <v>0.22328630046834871</v>
       </c>
       <c r="S18">
+        <f t="shared" si="2"/>
+        <v>0.22423266969424366</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="1"/>
-        <v>0.22423266969424366</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="2"/>
         <v>0.2119967184455368</v>
       </c>
     </row>
@@ -1727,11 +1726,11 @@
         <v>0.25633366236516308</v>
       </c>
       <c r="S19">
+        <f t="shared" si="2"/>
+        <v>0.25364979827709272</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="1"/>
-        <v>0.25364979827709272</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="2"/>
         <v>0.20889171124192008</v>
       </c>
     </row>
@@ -1789,11 +1788,11 @@
         <v>4.8983250448273404E-2</v>
       </c>
       <c r="S20">
+        <f t="shared" si="2"/>
+        <v>5.086664357816871E-2</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="1"/>
-        <v>5.086664357816871E-2</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="2"/>
         <v>0.21921880695963214</v>
       </c>
     </row>
@@ -1851,11 +1850,11 @@
         <v>4.8983250448273404E-2</v>
       </c>
       <c r="S21">
+        <f t="shared" si="2"/>
+        <v>5.086664357816871E-2</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="1"/>
-        <v>5.086664357816871E-2</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="2"/>
         <v>0.21921880695963214</v>
       </c>
     </row>
@@ -1913,11 +1912,11 @@
         <v>0.12088000405883315</v>
       </c>
       <c r="S22">
+        <f t="shared" si="2"/>
+        <v>0.10878962321028138</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="1"/>
-        <v>0.10878962321028138</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="2"/>
         <v>0.18998763456411222</v>
       </c>
     </row>
@@ -1975,11 +1974,11 @@
         <v>0.12088000405883315</v>
       </c>
       <c r="S23">
+        <f t="shared" si="2"/>
+        <v>0.10878962321028138</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="1"/>
-        <v>0.10878962321028138</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="2"/>
         <v>0.18998763456411222</v>
       </c>
     </row>
@@ -2037,11 +2036,11 @@
         <v>1.1942444700595408E-2</v>
       </c>
       <c r="S24">
+        <f t="shared" si="2"/>
+        <v>1.1866210726640987E-2</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="1"/>
-        <v>1.1866210726640987E-2</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="2"/>
         <v>0.20975443222528276</v>
       </c>
     </row>
@@ -2099,11 +2098,11 @@
         <v>1.1942444700595408E-2</v>
       </c>
       <c r="S25">
+        <f t="shared" si="2"/>
+        <v>1.1866210726640987E-2</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="1"/>
-        <v>1.1866210726640987E-2</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="2"/>
         <v>0.20975443222528276</v>
       </c>
     </row>
@@ -2161,11 +2160,11 @@
         <v>0.13219231716474072</v>
       </c>
       <c r="S26">
+        <f t="shared" si="2"/>
+        <v>0.13547097119011972</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="1"/>
-        <v>0.13547097119011972</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="2"/>
         <v>0.21633777458613704</v>
       </c>
     </row>
@@ -2223,11 +2222,11 @@
         <v>9.2155191860792379E-2</v>
       </c>
       <c r="S27">
+        <f t="shared" si="2"/>
+        <v>9.6248133079654241E-2</v>
+      </c>
+      <c r="U27">
         <f t="shared" si="1"/>
-        <v>9.6248133079654241E-2</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="2"/>
         <v>0.22047778419095931</v>
       </c>
     </row>
@@ -2285,11 +2284,11 @@
         <v>2.6097477975230627E-3</v>
       </c>
       <c r="S28">
+        <f t="shared" si="2"/>
+        <v>3.5297181135351373E-3</v>
+      </c>
+      <c r="U28">
         <f t="shared" si="1"/>
-        <v>3.5297181135351373E-3</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="2"/>
         <v>0.28551821038424852</v>
       </c>
     </row>
@@ -2347,11 +2346,11 @@
         <v>2.6097477975224833E-3</v>
       </c>
       <c r="S29">
+        <f t="shared" si="2"/>
+        <v>3.5297181135343484E-3</v>
+      </c>
+      <c r="U29">
         <f t="shared" si="1"/>
-        <v>3.5297181135343484E-3</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="2"/>
         <v>0.28551821038424807</v>
       </c>
     </row>
@@ -2409,11 +2408,11 @@
         <v>0.1053856799813488</v>
       </c>
       <c r="S30">
+        <f t="shared" si="2"/>
+        <v>9.4532871007506486E-2</v>
+      </c>
+      <c r="U30">
         <f t="shared" si="1"/>
-        <v>9.4532871007506486E-2</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="2"/>
         <v>0.18936232388054142</v>
       </c>
     </row>
@@ -2471,11 +2470,11 @@
         <v>0.1053856799813488</v>
       </c>
       <c r="S31">
+        <f t="shared" si="2"/>
+        <v>9.4532871007506486E-2</v>
+      </c>
+      <c r="U31">
         <f t="shared" si="1"/>
-        <v>9.4532871007506486E-2</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="2"/>
         <v>0.18936232388054142</v>
       </c>
     </row>
@@ -2533,11 +2532,11 @@
         <v>5.328521246331476E-2</v>
       </c>
       <c r="S32">
+        <f t="shared" si="2"/>
+        <v>5.3986855650410413E-2</v>
+      </c>
+      <c r="U32">
         <f t="shared" si="1"/>
-        <v>5.3986855650410413E-2</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="2"/>
         <v>0.21388171647558224</v>
       </c>
     </row>
@@ -2595,11 +2594,11 @@
         <v>5.328521246331476E-2</v>
       </c>
       <c r="S33">
+        <f t="shared" si="2"/>
+        <v>5.3986855650410413E-2</v>
+      </c>
+      <c r="U33">
         <f t="shared" si="1"/>
-        <v>5.3986855650410413E-2</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="2"/>
         <v>0.21388171647558224</v>
       </c>
     </row>
@@ -2657,11 +2656,11 @@
         <v>7.4567257348769164E-2</v>
       </c>
       <c r="S34">
+        <f t="shared" si="2"/>
+        <v>7.7270187374179108E-2</v>
+      </c>
+      <c r="U34">
         <f t="shared" si="1"/>
-        <v>7.7270187374179108E-2</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="2"/>
         <v>0.21875406128042216</v>
       </c>
     </row>
@@ -2719,11 +2718,11 @@
         <v>7.4567257348769164E-2</v>
       </c>
       <c r="S35">
+        <f t="shared" si="2"/>
+        <v>7.7270187374179108E-2</v>
+      </c>
+      <c r="U35">
         <f t="shared" si="1"/>
-        <v>7.7270187374179108E-2</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="2"/>
         <v>0.21875406128042216</v>
       </c>
     </row>
@@ -2781,11 +2780,11 @@
         <v>1.8276886622101425E-2</v>
       </c>
       <c r="S36">
+        <f t="shared" si="2"/>
+        <v>1.8608024332974819E-2</v>
+      </c>
+      <c r="U36">
         <f t="shared" si="1"/>
-        <v>1.8608024332974819E-2</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="2"/>
         <v>0.2149267029239508</v>
       </c>
     </row>
@@ -2843,78 +2842,78 @@
         <v>1.8276886622101425E-2</v>
       </c>
       <c r="S37">
+        <f t="shared" si="2"/>
+        <v>1.8608024332974819E-2</v>
+      </c>
+      <c r="U37">
         <f t="shared" si="1"/>
-        <v>1.8608024332974819E-2</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="2"/>
         <v>0.2149267029239508</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+    <row r="38" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
         <v>152</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="4">
+      <c r="D38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="6">
         <v>4</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="6">
         <v>2023</v>
       </c>
-      <c r="G38" s="4">
-        <v>5</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L38" s="4">
-        <v>3</v>
-      </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="5">
+      <c r="G38" s="6">
+        <v>5</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" s="6">
+        <v>3</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="7">
         <v>0.15384149756567436</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="7">
         <v>0.16979419218752589</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38" s="7">
         <v>3.422413385479055</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q38" s="6">
         <v>383</v>
       </c>
-      <c r="R38" s="4">
+      <c r="R38" s="6">
         <f t="shared" si="3"/>
         <v>9.8584273162312969E-2</v>
       </c>
-      <c r="S38" s="4">
+      <c r="S38" s="6">
         <f t="shared" ref="S38:S69" si="4">(ABS(O38-N38))/($V$38)</f>
         <v>7.596817028801113E-2</v>
       </c>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4">
-        <f t="shared" si="2"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6">
+        <f t="shared" si="1"/>
         <v>0.16181784487660011</v>
       </c>
-      <c r="V38" s="4">
+      <c r="V38" s="6">
         <f>AVERAGEA(U38:U135)</f>
         <v>0.2099918236989459</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>8.1406790820828218E-2</v>
       </c>
       <c r="U39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.16140604301676981</v>
       </c>
     </row>
@@ -3039,7 +3038,7 @@
         <v>2.1767608444217025E-3</v>
       </c>
       <c r="U40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.16891621374731591</v>
       </c>
     </row>
@@ -3101,7 +3100,7 @@
         <v>2.6726664022737757E-2</v>
       </c>
       <c r="U41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.17075356963358157</v>
       </c>
     </row>
@@ -3163,7 +3162,7 @@
         <v>2.6515790928950969E-2</v>
       </c>
       <c r="U42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.1881176852102297</v>
       </c>
     </row>
@@ -3225,7 +3224,7 @@
         <v>9.8706748543557488E-4</v>
       </c>
       <c r="U43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.18522999751254424</v>
       </c>
     </row>
@@ -3287,7 +3286,7 @@
         <v>8.3600300331924981E-4</v>
       </c>
       <c r="U44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.22988250438841018</v>
       </c>
     </row>
@@ -3349,7 +3348,7 @@
         <v>1.5642472182273947E-2</v>
       </c>
       <c r="U45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.22832788565569473</v>
       </c>
     </row>
@@ -3411,7 +3410,7 @@
         <v>3.7009151414858499E-2</v>
       </c>
       <c r="U46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.23404482729949933</v>
       </c>
     </row>
@@ -3473,7 +3472,7 @@
         <v>2.3119963692339485E-2</v>
       </c>
       <c r="U47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.23384733962982795</v>
       </c>
     </row>
@@ -3535,7 +3534,7 @@
         <v>0.15552848623454385</v>
       </c>
       <c r="U48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.23131248388846262</v>
       </c>
     </row>
@@ -3597,7 +3596,7 @@
         <v>0.16105719836263202</v>
       </c>
       <c r="U49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.23073199171722075</v>
       </c>
     </row>
@@ -3659,7 +3658,7 @@
         <v>3.6282256698480841E-2</v>
       </c>
       <c r="U50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.22342637282718497</v>
       </c>
     </row>
@@ -3721,7 +3720,7 @@
         <v>4.9342378175282656E-2</v>
       </c>
       <c r="U51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.23293196984417003</v>
       </c>
     </row>
@@ -3783,7 +3782,7 @@
         <v>0.10487920232471626</v>
       </c>
       <c r="U52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.20759198377185234</v>
       </c>
     </row>
@@ -3845,7 +3844,7 @@
         <v>6.6311290403697404E-2</v>
       </c>
       <c r="U53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.20354251069157481</v>
       </c>
     </row>
@@ -3907,7 +3906,7 @@
         <v>7.0156821612700815E-2</v>
       </c>
       <c r="U54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.20526483576926899</v>
       </c>
     </row>
@@ -3969,7 +3968,7 @@
         <v>7.9548969611300466E-2</v>
       </c>
       <c r="U55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.20625097291260716</v>
       </c>
     </row>
@@ -4031,7 +4030,7 @@
         <v>4.9422547654077033E-2</v>
       </c>
       <c r="U56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.1746500858568992</v>
       </c>
     </row>
@@ -4093,7 +4092,7 @@
         <v>4.9555714670696374E-2</v>
       </c>
       <c r="U57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.17466406784923744</v>
       </c>
     </row>
@@ -4155,7 +4154,7 @@
         <v>2.0144558971551291E-2</v>
       </c>
       <c r="U58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.21626901741012039</v>
       </c>
     </row>
@@ -4217,7 +4216,7 @@
         <v>5.193452925649167E-3</v>
       </c>
       <c r="U59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.21148123302596061</v>
       </c>
     </row>
@@ -4279,7 +4278,7 @@
         <v>3.2423892044323138E-2</v>
       </c>
       <c r="U60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.19431142624365891</v>
       </c>
     </row>
@@ -4341,7 +4340,7 @@
         <v>6.7137369713331937E-2</v>
       </c>
       <c r="U61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.1979561994849828</v>
       </c>
     </row>
@@ -4403,7 +4402,7 @@
         <v>0.13947910229382826</v>
       </c>
       <c r="U62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.22066977506637817</v>
       </c>
     </row>
@@ -4465,7 +4464,7 @@
         <v>0.1500672833372417</v>
       </c>
       <c r="U63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.21955805934289768</v>
       </c>
     </row>
@@ -4527,7 +4526,7 @@
         <v>1.4529931990502459E-2</v>
       </c>
       <c r="U64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.20567207032910317</v>
       </c>
     </row>
@@ -4589,7 +4588,7 @@
         <v>1.4529931990502459E-2</v>
       </c>
       <c r="U65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.20567207032910317</v>
       </c>
     </row>
@@ -6862,7 +6861,7 @@
       <c r="L102">
         <v>3</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="2">
         <v>0.19023243308364499</v>
       </c>
       <c r="O102" s="2">
@@ -6924,7 +6923,7 @@
       <c r="L103">
         <v>3</v>
       </c>
-      <c r="N103" s="3">
+      <c r="N103" s="2">
         <v>0.19023243308364499</v>
       </c>
       <c r="O103" s="2">
@@ -7733,7 +7732,7 @@
       <c r="N116" s="2">
         <v>0.24065413849160133</v>
       </c>
-      <c r="O116" s="3">
+      <c r="O116" s="2">
         <v>0.20644596725804401</v>
       </c>
       <c r="P116" s="2">
@@ -7795,7 +7794,7 @@
       <c r="N117" s="2">
         <v>0.24065413849160133</v>
       </c>
-      <c r="O117" s="3">
+      <c r="O117" s="2">
         <v>0.20644596725804401</v>
       </c>
       <c r="P117" s="2">
@@ -8933,68 +8932,68 @@
         <v>0.22141137781407058</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="136" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="8">
         <v>160</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E136">
-        <v>3</v>
-      </c>
-      <c r="F136">
-        <v>2024</v>
-      </c>
-      <c r="G136">
-        <v>5</v>
-      </c>
-      <c r="H136" t="s">
-        <v>23</v>
-      </c>
-      <c r="I136" t="s">
-        <v>24</v>
-      </c>
-      <c r="J136" t="s">
-        <v>26</v>
-      </c>
-      <c r="K136" t="s">
-        <v>26</v>
-      </c>
-      <c r="L136">
-        <v>3</v>
-      </c>
-      <c r="N136" s="2">
+      <c r="E136" s="8">
+        <v>3</v>
+      </c>
+      <c r="F136" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G136" s="8">
+        <v>5</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J136" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K136" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L136" s="8">
+        <v>3</v>
+      </c>
+      <c r="N136" s="3">
         <v>0.17260935278539846</v>
       </c>
-      <c r="O136" s="2">
+      <c r="O136" s="3">
         <v>0.14899134401961814</v>
       </c>
-      <c r="P136" s="2">
+      <c r="P136" s="3">
         <v>3.2455948462400435</v>
       </c>
-      <c r="Q136">
+      <c r="Q136" s="8">
         <v>402</v>
       </c>
-      <c r="R136">
+      <c r="R136" s="8">
         <f t="shared" si="10"/>
         <v>0.14687784572867202</v>
       </c>
-      <c r="S136">
+      <c r="S136" s="8">
         <f t="shared" ref="S136:S155" si="12">(ABS(O136-N136))/($V$136)</f>
         <v>0.11363077358642547</v>
       </c>
-      <c r="U136">
+      <c r="U136" s="8">
         <f t="shared" si="11"/>
         <v>0.16080034840250829</v>
       </c>
-      <c r="V136">
+      <c r="V136" s="8">
         <f>AVERAGEA(U136:U233)</f>
         <v>0.20784870172354236</v>
       </c>
@@ -10183,68 +10182,68 @@
         <v>0.22309713970609796</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="8">
         <v>154</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C156" t="s">
-        <v>30</v>
-      </c>
-      <c r="D156" t="s">
-        <v>46</v>
-      </c>
-      <c r="E156">
-        <v>3</v>
-      </c>
-      <c r="F156">
+      <c r="C156" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E156" s="8">
+        <v>3</v>
+      </c>
+      <c r="F156" s="8">
         <v>2023</v>
       </c>
-      <c r="G156">
-        <v>5</v>
-      </c>
-      <c r="H156" t="s">
-        <v>23</v>
-      </c>
-      <c r="I156" t="s">
-        <v>24</v>
-      </c>
-      <c r="J156" t="s">
-        <v>26</v>
-      </c>
-      <c r="K156" t="s">
+      <c r="G156" s="8">
+        <v>5</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I156" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J156" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K156" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L156">
+      <c r="L156" s="8">
         <v>1</v>
       </c>
-      <c r="N156" s="2">
+      <c r="N156" s="3">
         <v>0.18092093215766261</v>
       </c>
-      <c r="O156" s="2">
+      <c r="O156" s="3">
         <v>0.18210842957705664</v>
       </c>
-      <c r="P156" s="2">
+      <c r="P156" s="3">
         <v>3.8707465016918841</v>
       </c>
-      <c r="Q156">
+      <c r="Q156" s="8">
         <v>388</v>
       </c>
-      <c r="R156">
+      <c r="R156" s="8">
         <f t="shared" si="13"/>
         <v>6.5421563353422812E-3</v>
       </c>
-      <c r="S156">
+      <c r="S156" s="8">
         <f t="shared" ref="S156:S187" si="14">(ABS(O156-N156))/($V$156)</f>
         <v>5.5972129696761786E-3</v>
       </c>
-      <c r="U156">
+      <c r="U156" s="8">
         <f t="shared" si="11"/>
         <v>0.18151468086735961</v>
       </c>
-      <c r="V156">
+      <c r="V156" s="8">
         <f>AVERAGEA(U156:U253)</f>
         <v>0.21215869859294109</v>
       </c>
